--- a/Code/Results/Cases/Case_0_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_202/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9852526947686412</v>
+        <v>1.021323551346859</v>
       </c>
       <c r="D2">
-        <v>0.9943609201046525</v>
+        <v>1.023091967653067</v>
       </c>
       <c r="E2">
-        <v>0.9936977894489404</v>
+        <v>1.022210100574782</v>
       </c>
       <c r="F2">
-        <v>0.9613072955438745</v>
+        <v>1.019752484637941</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038525362002296</v>
+        <v>1.028395850748849</v>
       </c>
       <c r="J2">
-        <v>1.007883623572514</v>
+        <v>1.026515664652551</v>
       </c>
       <c r="K2">
-        <v>1.005899379360375</v>
+        <v>1.025924423788299</v>
       </c>
       <c r="L2">
-        <v>1.005245627987061</v>
+        <v>1.02504515356685</v>
       </c>
       <c r="M2">
-        <v>0.9733333625969027</v>
+        <v>1.022594800432511</v>
       </c>
       <c r="N2">
-        <v>1.009314933923855</v>
+        <v>1.027973434639351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9901689765165959</v>
+        <v>1.022333498300389</v>
       </c>
       <c r="D3">
-        <v>0.998380904178866</v>
+        <v>1.023964303143492</v>
       </c>
       <c r="E3">
-        <v>0.9976342215668463</v>
+        <v>1.023068577542446</v>
       </c>
       <c r="F3">
-        <v>0.9690022202115824</v>
+        <v>1.02140221847953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039433547147288</v>
+        <v>1.028507788645528</v>
       </c>
       <c r="J3">
-        <v>1.010931280849806</v>
+        <v>1.027162866277341</v>
       </c>
       <c r="K3">
-        <v>1.009034543643408</v>
+        <v>1.026603385778147</v>
       </c>
       <c r="L3">
-        <v>1.008297462736515</v>
+        <v>1.025710106318863</v>
       </c>
       <c r="M3">
-        <v>0.9800477133623918</v>
+        <v>1.024048310287277</v>
       </c>
       <c r="N3">
-        <v>1.012366919224051</v>
+        <v>1.028621555364682</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9932742462792942</v>
+        <v>1.02298676628891</v>
       </c>
       <c r="D4">
-        <v>1.000925203987651</v>
+        <v>1.024528846358328</v>
       </c>
       <c r="E4">
-        <v>1.000126744508657</v>
+        <v>1.023624246355038</v>
       </c>
       <c r="F4">
-        <v>0.9738476334811543</v>
+        <v>1.022469335143573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039994101715526</v>
+        <v>1.028578569745956</v>
       </c>
       <c r="J4">
-        <v>1.012851576433203</v>
+        <v>1.027580858730693</v>
       </c>
       <c r="K4">
-        <v>1.011012475423901</v>
+        <v>1.027042170811606</v>
       </c>
       <c r="L4">
-        <v>1.010223640076523</v>
+        <v>1.026139916284943</v>
       </c>
       <c r="M4">
-        <v>0.9842722902348917</v>
+        <v>1.024988006075937</v>
       </c>
       <c r="N4">
-        <v>1.014289941847438</v>
+        <v>1.029040141415263</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9945623042911799</v>
+        <v>1.023261344668148</v>
       </c>
       <c r="D5">
-        <v>1.001981767874792</v>
+        <v>1.024766200576589</v>
       </c>
       <c r="E5">
-        <v>1.001162065220941</v>
+        <v>1.02385789193929</v>
       </c>
       <c r="F5">
-        <v>0.9758543860760235</v>
+        <v>1.022917868865606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040223434823477</v>
+        <v>1.028607930943775</v>
       </c>
       <c r="J5">
-        <v>1.013646965350221</v>
+        <v>1.02775639401233</v>
       </c>
       <c r="K5">
-        <v>1.011832332033162</v>
+        <v>1.027226505000477</v>
       </c>
       <c r="L5">
-        <v>1.011022236679433</v>
+        <v>1.026320498793021</v>
       </c>
       <c r="M5">
-        <v>0.9860210678077059</v>
+        <v>1.025382863181545</v>
       </c>
       <c r="N5">
-        <v>1.01508646030795</v>
+        <v>1.029215925977134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9947775762041937</v>
+        <v>1.023307444356682</v>
       </c>
       <c r="D6">
-        <v>1.002158419427931</v>
+        <v>1.024806054586947</v>
       </c>
       <c r="E6">
-        <v>1.001335180013494</v>
+        <v>1.023897124550611</v>
       </c>
       <c r="F6">
-        <v>0.9761896026889352</v>
+        <v>1.022993175032694</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040261574578904</v>
+        <v>1.028612837641335</v>
       </c>
       <c r="J6">
-        <v>1.013779830092052</v>
+        <v>1.027785856103245</v>
       </c>
       <c r="K6">
-        <v>1.011969318794559</v>
+        <v>1.0272574478474</v>
       </c>
       <c r="L6">
-        <v>1.011155682392385</v>
+        <v>1.026350812971254</v>
       </c>
       <c r="M6">
-        <v>0.9863131398776562</v>
+        <v>1.025449150396186</v>
       </c>
       <c r="N6">
-        <v>1.015219513732955</v>
+        <v>1.029245429907597</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9932915247493198</v>
+        <v>1.022990435435641</v>
       </c>
       <c r="D7">
-        <v>1.000939372444939</v>
+        <v>1.024532017817231</v>
       </c>
       <c r="E7">
-        <v>1.000140627085336</v>
+        <v>1.023627368172021</v>
       </c>
       <c r="F7">
-        <v>0.9738745644885685</v>
+        <v>1.022475328787378</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039997190715475</v>
+        <v>1.028578963624643</v>
       </c>
       <c r="J7">
-        <v>1.012862250614338</v>
+        <v>1.027583204982823</v>
       </c>
       <c r="K7">
-        <v>1.011023475616871</v>
+        <v>1.027044634408554</v>
       </c>
       <c r="L7">
-        <v>1.010234354263597</v>
+        <v>1.026142329667603</v>
       </c>
       <c r="M7">
-        <v>0.9842957625923654</v>
+        <v>1.024993282919177</v>
       </c>
       <c r="N7">
-        <v>1.014300631187134</v>
+        <v>1.02904249099934</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9869303704526066</v>
+        <v>1.021664916854687</v>
       </c>
       <c r="D8">
-        <v>0.9957316240673434</v>
+        <v>1.023386760274167</v>
       </c>
       <c r="E8">
-        <v>0.9950397683179263</v>
+        <v>1.02250019033091</v>
       </c>
       <c r="F8">
-        <v>0.9639366187831131</v>
+        <v>1.02031010092345</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038838001684311</v>
+        <v>1.028434022302896</v>
       </c>
       <c r="J8">
-        <v>1.008924609293593</v>
+        <v>1.026734553375457</v>
       </c>
       <c r="K8">
-        <v>1.006969725339422</v>
+        <v>1.026153996005481</v>
       </c>
       <c r="L8">
-        <v>1.006287350971438</v>
+        <v>1.025269972649958</v>
       </c>
       <c r="M8">
-        <v>0.9756283131245687</v>
+        <v>1.02308619467912</v>
       </c>
       <c r="N8">
-        <v>1.010357397964059</v>
+        <v>1.028192634209349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9751024211806643</v>
+        <v>1.019327344319039</v>
       </c>
       <c r="D9">
-        <v>0.9860918052172167</v>
+        <v>1.021369302963189</v>
       </c>
       <c r="E9">
-        <v>0.9856069810493504</v>
+        <v>1.020515308285222</v>
       </c>
       <c r="F9">
-        <v>0.9453137990162788</v>
+        <v>1.016491543113879</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036579761483521</v>
+        <v>1.028165983295051</v>
       </c>
       <c r="J9">
-        <v>1.001566085081543</v>
+        <v>1.025233047466533</v>
       </c>
       <c r="K9">
-        <v>0.9994146370176265</v>
+        <v>1.024580358450087</v>
       </c>
       <c r="L9">
-        <v>0.9989379726754503</v>
+        <v>1.023729240569205</v>
       </c>
       <c r="M9">
-        <v>0.9593611470954722</v>
+        <v>1.019719101481594</v>
       </c>
       <c r="N9">
-        <v>1.002988423803595</v>
+        <v>1.02668899598981</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9667436315656341</v>
+        <v>1.017767669775138</v>
       </c>
       <c r="D10">
-        <v>0.9793120686180689</v>
+        <v>1.020024740763928</v>
       </c>
       <c r="E10">
-        <v>0.978979630225665</v>
+        <v>1.019192950747341</v>
       </c>
       <c r="F10">
-        <v>0.9320159564093244</v>
+        <v>1.013943292954748</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03491694183881</v>
+        <v>1.027978801474274</v>
       </c>
       <c r="J10">
-        <v>0.9963418014635648</v>
+        <v>1.024227928478905</v>
       </c>
       <c r="K10">
-        <v>0.9940651737904435</v>
+        <v>1.023528405197058</v>
       </c>
       <c r="L10">
-        <v>0.993739076858823</v>
+        <v>1.022699693652642</v>
       </c>
       <c r="M10">
-        <v>0.9477316670399</v>
+        <v>1.017469593951103</v>
       </c>
       <c r="N10">
-        <v>0.9977567211036449</v>
+        <v>1.02568244961793</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9629973813619042</v>
+        <v>1.017091993371728</v>
       </c>
       <c r="D11">
-        <v>0.9762820408559421</v>
+        <v>1.019442622967475</v>
       </c>
       <c r="E11">
-        <v>0.9760194584833494</v>
+        <v>1.018620564871189</v>
       </c>
       <c r="F11">
-        <v>0.9260132029482867</v>
+        <v>1.012839173471416</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034156464735292</v>
+        <v>1.027895736853946</v>
       </c>
       <c r="J11">
-        <v>0.9939948569674143</v>
+        <v>1.023791716962489</v>
       </c>
       <c r="K11">
-        <v>0.9916655463432914</v>
+        <v>1.023072212692453</v>
       </c>
       <c r="L11">
-        <v>0.9914082395074221</v>
+        <v>1.022253315683496</v>
       </c>
       <c r="M11">
-        <v>0.9424796550246275</v>
+        <v>1.016494316597909</v>
       </c>
       <c r="N11">
-        <v>0.9954064436771117</v>
+        <v>1.025245618631127</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9615854166883807</v>
+        <v>1.016840966666676</v>
       </c>
       <c r="D12">
-        <v>0.975141369156283</v>
+        <v>1.019226410991181</v>
       </c>
       <c r="E12">
-        <v>0.9749053611439009</v>
+        <v>1.018407985482938</v>
       </c>
       <c r="F12">
-        <v>0.9237432905626142</v>
+        <v>1.012428939336233</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033867608473164</v>
+        <v>1.027864580419826</v>
       </c>
       <c r="J12">
-        <v>0.9931094746030418</v>
+        <v>1.023629539319205</v>
       </c>
       <c r="K12">
-        <v>0.9907608372548193</v>
+        <v>1.022902658200305</v>
       </c>
       <c r="L12">
-        <v>0.9905296615315957</v>
+        <v>1.022087423730511</v>
       </c>
       <c r="M12">
-        <v>0.9404933624557708</v>
+        <v>1.016131863851906</v>
       </c>
       <c r="N12">
-        <v>0.9945198039682271</v>
+        <v>1.025083210676987</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9618892366813435</v>
+        <v>1.016894815048468</v>
       </c>
       <c r="D13">
-        <v>0.975386751578159</v>
+        <v>1.019272788636985</v>
       </c>
       <c r="E13">
-        <v>0.9751450141346927</v>
+        <v>1.018453583122527</v>
       </c>
       <c r="F13">
-        <v>0.924232074961971</v>
+        <v>1.012516941288066</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033929863084531</v>
+        <v>1.02787127727123</v>
       </c>
       <c r="J13">
-        <v>0.9933000238023852</v>
+        <v>1.023664333741247</v>
       </c>
       <c r="K13">
-        <v>0.9909555209034028</v>
+        <v>1.022939032944035</v>
       </c>
       <c r="L13">
-        <v>0.9907187130632055</v>
+        <v>1.022123012077156</v>
       </c>
       <c r="M13">
-        <v>0.9409210851363403</v>
+        <v>1.016209619968941</v>
       </c>
       <c r="N13">
-        <v>0.9947106237692896</v>
+        <v>1.0251180545111</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9628810934164018</v>
+        <v>1.017071244461603</v>
       </c>
       <c r="D14">
-        <v>0.9761880685392456</v>
+        <v>1.019424750566194</v>
       </c>
       <c r="E14">
-        <v>0.9759276697477053</v>
+        <v>1.018602992378611</v>
       </c>
       <c r="F14">
-        <v>0.9258264133688522</v>
+        <v>1.012805265783787</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034132719820898</v>
+        <v>1.02789316762507</v>
       </c>
       <c r="J14">
-        <v>0.9939219543277121</v>
+        <v>1.023778314357351</v>
       </c>
       <c r="K14">
-        <v>0.9915910411252106</v>
+        <v>1.023058199396391</v>
       </c>
       <c r="L14">
-        <v>0.9913358822305542</v>
+        <v>1.022239604787077</v>
       </c>
       <c r="M14">
-        <v>0.9423162092601236</v>
+        <v>1.016464360085122</v>
       </c>
       <c r="N14">
-        <v>0.9953334375072992</v>
+        <v>1.025232196992752</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9634894566815192</v>
+        <v>1.017179941728671</v>
       </c>
       <c r="D15">
-        <v>0.9766797423392626</v>
+        <v>1.019518380966175</v>
       </c>
       <c r="E15">
-        <v>0.9764079301571894</v>
+        <v>1.018695052343982</v>
       </c>
       <c r="F15">
-        <v>0.9268032971317933</v>
+        <v>1.012982896534796</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034256851406541</v>
+        <v>1.027906614905369</v>
       </c>
       <c r="J15">
-        <v>0.994303313089299</v>
+        <v>1.023848521774547</v>
       </c>
       <c r="K15">
-        <v>0.9919808054713316</v>
+        <v>1.023131607942452</v>
       </c>
       <c r="L15">
-        <v>0.9917144179239871</v>
+        <v>1.022311429818691</v>
       </c>
       <c r="M15">
-        <v>0.9431709976753984</v>
+        <v>1.016621288312594</v>
       </c>
       <c r="N15">
-        <v>0.9957153378420698</v>
+        <v>1.025302504112534</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.966989470522168</v>
+        <v>1.01781250519426</v>
       </c>
       <c r="D16">
-        <v>0.9795110898466871</v>
+        <v>1.020063375784741</v>
       </c>
       <c r="E16">
-        <v>0.9791741006431789</v>
+        <v>1.019230942371072</v>
       </c>
       <c r="F16">
-        <v>0.9324088982988912</v>
+        <v>1.014016554056878</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034966534605922</v>
+        <v>1.027984271773658</v>
       </c>
       <c r="J16">
-        <v>0.9964957006326879</v>
+        <v>1.024256857511186</v>
       </c>
       <c r="K16">
-        <v>0.9942226025007868</v>
+        <v>1.023558666602647</v>
       </c>
       <c r="L16">
-        <v>0.9938920191789253</v>
+        <v>1.022729306076598</v>
       </c>
       <c r="M16">
-        <v>0.9480754231278273</v>
+        <v>1.017534293461831</v>
       </c>
       <c r="N16">
-        <v>0.9979108388272405</v>
+        <v>1.025711419732756</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9691500443449702</v>
+        <v>1.018209207094361</v>
       </c>
       <c r="D17">
-        <v>0.9812611770934691</v>
+        <v>1.020405259444424</v>
       </c>
       <c r="E17">
-        <v>0.9808843708921073</v>
+        <v>1.019567146284789</v>
       </c>
       <c r="F17">
-        <v>0.9358573204195999</v>
+        <v>1.014664744104371</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03540066318492</v>
+        <v>1.028032444759113</v>
       </c>
       <c r="J17">
-        <v>0.9978476305704307</v>
+        <v>1.024512730575755</v>
       </c>
       <c r="K17">
-        <v>0.9956059417188302</v>
+        <v>1.023826364083041</v>
       </c>
       <c r="L17">
-        <v>0.995236078668827</v>
+        <v>1.022991273846658</v>
       </c>
       <c r="M17">
-        <v>0.9510919365914189</v>
+        <v>1.018106664263741</v>
       </c>
       <c r="N17">
-        <v>0.9992646886605634</v>
+        <v>1.025967656166425</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9703981330242017</v>
+        <v>1.018440565132888</v>
       </c>
       <c r="D18">
-        <v>0.9822729426208144</v>
+        <v>1.020604682780258</v>
       </c>
       <c r="E18">
-        <v>0.9818732821271716</v>
+        <v>1.019763268016744</v>
       </c>
       <c r="F18">
-        <v>0.9378453719490706</v>
+        <v>1.01504275441167</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035650000730608</v>
+        <v>1.028060348958484</v>
       </c>
       <c r="J18">
-        <v>0.9986280713039227</v>
+        <v>1.024661881695149</v>
       </c>
       <c r="K18">
-        <v>0.9964048486379117</v>
+        <v>1.023982440982259</v>
       </c>
       <c r="L18">
-        <v>0.9960124182005137</v>
+        <v>1.023144019545911</v>
       </c>
       <c r="M18">
-        <v>0.9528307590126674</v>
+        <v>1.018440400683941</v>
       </c>
       <c r="N18">
-        <v>1.000046237709415</v>
+        <v>1.026117019097517</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9708216800548232</v>
+        <v>1.018519446946162</v>
       </c>
       <c r="D19">
-        <v>0.9826164257096136</v>
+        <v>1.020672682421014</v>
       </c>
       <c r="E19">
-        <v>0.9822090340164126</v>
+        <v>1.019830143808276</v>
       </c>
       <c r="F19">
-        <v>0.9385193829334093</v>
+        <v>1.015171634878181</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035734368534978</v>
+        <v>1.028069830614881</v>
       </c>
       <c r="J19">
-        <v>0.9988928299371631</v>
+        <v>1.024712722229573</v>
       </c>
       <c r="K19">
-        <v>0.9966759280976604</v>
+        <v>1.024035647909487</v>
       </c>
       <c r="L19">
-        <v>0.9962758599528855</v>
+        <v>1.023196092456479</v>
       </c>
       <c r="M19">
-        <v>0.9534202323325051</v>
+        <v>1.018554176417558</v>
       </c>
       <c r="N19">
-        <v>1.000311372330283</v>
+        <v>1.026167931831331</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9689195002128663</v>
+        <v>1.018166647998657</v>
       </c>
       <c r="D20">
-        <v>0.981074350346848</v>
+        <v>1.020368577699824</v>
       </c>
       <c r="E20">
-        <v>0.980701777523008</v>
+        <v>1.019531072753954</v>
       </c>
       <c r="F20">
-        <v>0.9354897766815472</v>
+        <v>1.014595206537137</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035354488942109</v>
+        <v>1.028027296349786</v>
       </c>
       <c r="J20">
-        <v>0.9977034269599543</v>
+        <v>1.024485287681255</v>
       </c>
       <c r="K20">
-        <v>0.9954583530301537</v>
+        <v>1.023797649561009</v>
       </c>
       <c r="L20">
-        <v>0.9950926684896518</v>
+        <v>1.022963172946121</v>
       </c>
       <c r="M20">
-        <v>0.9507704502814552</v>
+        <v>1.01804526652749</v>
       </c>
       <c r="N20">
-        <v>0.9991202802644202</v>
+        <v>1.025940174299867</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9625895924255572</v>
+        <v>1.017019291798491</v>
       </c>
       <c r="D21">
-        <v>0.9759525284567616</v>
+        <v>1.019380001224864</v>
       </c>
       <c r="E21">
-        <v>0.9756976072787343</v>
+        <v>1.018558994245795</v>
       </c>
       <c r="F21">
-        <v>0.9253580607587765</v>
+        <v>1.012720364647295</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03407316230625</v>
+        <v>1.027886729813003</v>
       </c>
       <c r="J21">
-        <v>0.9937391949111013</v>
+        <v>1.023744754033476</v>
       </c>
       <c r="K21">
-        <v>0.9914042730781701</v>
+        <v>1.023023110730327</v>
       </c>
       <c r="L21">
-        <v>0.9911545017765894</v>
+        <v>1.022205273554452</v>
       </c>
       <c r="M21">
-        <v>0.9419063844643465</v>
+        <v>1.016389350808983</v>
       </c>
       <c r="N21">
-        <v>0.9951504185513539</v>
+        <v>1.025198589009368</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9584906711679902</v>
+        <v>1.016297611155948</v>
       </c>
       <c r="D22">
-        <v>0.9726438040874944</v>
+        <v>1.018758515975297</v>
       </c>
       <c r="E22">
-        <v>0.9724665074813997</v>
+        <v>1.017947984501273</v>
       </c>
       <c r="F22">
-        <v>0.9187530859151706</v>
+        <v>1.011540907664628</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033230447729634</v>
+        <v>1.027796599668072</v>
       </c>
       <c r="J22">
-        <v>0.9911673986954558</v>
+        <v>1.023278287152531</v>
       </c>
       <c r="K22">
-        <v>0.9887773950313941</v>
+        <v>1.022535523742308</v>
       </c>
       <c r="L22">
-        <v>0.9886038783408062</v>
+        <v>1.021728246749576</v>
       </c>
       <c r="M22">
-        <v>0.9361262801631</v>
+        <v>1.015347100424416</v>
       </c>
       <c r="N22">
-        <v>0.9925749700900927</v>
+        <v>1.024731459691948</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9606753729972181</v>
+        <v>1.016680215849664</v>
       </c>
       <c r="D23">
-        <v>0.9744065687578622</v>
+        <v>1.019087970410516</v>
       </c>
       <c r="E23">
-        <v>0.9741877592561353</v>
+        <v>1.018271875910224</v>
       </c>
       <c r="F23">
-        <v>0.9222780346173117</v>
+        <v>1.012166226361901</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033680812199245</v>
+        <v>1.027844545282656</v>
       </c>
       <c r="J23">
-        <v>0.9925385962658432</v>
+        <v>1.023525652229012</v>
       </c>
       <c r="K23">
-        <v>0.9901776537626559</v>
+        <v>1.022794060271915</v>
       </c>
       <c r="L23">
-        <v>0.9899633786710853</v>
+        <v>1.02198117577764</v>
       </c>
       <c r="M23">
-        <v>0.9392111223846108</v>
+        <v>1.015899724732244</v>
       </c>
       <c r="N23">
-        <v>0.9939481149183088</v>
+        <v>1.02497917605521</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9690237105889159</v>
+        <v>1.018185878718888</v>
       </c>
       <c r="D24">
-        <v>0.9811587971454668</v>
+        <v>1.020385152575112</v>
       </c>
       <c r="E24">
-        <v>0.9807843102995953</v>
+        <v>1.019547372768746</v>
       </c>
       <c r="F24">
-        <v>0.935655925793122</v>
+        <v>1.014626627778686</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035375365070085</v>
+        <v>1.028029623294602</v>
       </c>
       <c r="J24">
-        <v>0.9977686113836418</v>
+        <v>1.024497688238215</v>
       </c>
       <c r="K24">
-        <v>0.9955250665758271</v>
+        <v>1.023810624622758</v>
       </c>
       <c r="L24">
-        <v>0.9951574928871945</v>
+        <v>1.022975870705248</v>
       </c>
       <c r="M24">
-        <v>0.9509157797300114</v>
+        <v>1.01807300988391</v>
       </c>
       <c r="N24">
-        <v>0.9991855572574658</v>
+        <v>1.025952592467041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9782391584284018</v>
+        <v>1.019931886576375</v>
       </c>
       <c r="D25">
-        <v>0.988642886184535</v>
+        <v>1.021890790662977</v>
       </c>
       <c r="E25">
-        <v>0.9881021511163135</v>
+        <v>1.02102828896257</v>
       </c>
       <c r="F25">
-        <v>0.9502729650177142</v>
+        <v>1.017479148963601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037190322749575</v>
+        <v>1.028236774437087</v>
       </c>
       <c r="J25">
-        <v>1.003521729373434</v>
+        <v>1.025621945682079</v>
       </c>
       <c r="K25">
-        <v>1.001420102910437</v>
+        <v>1.024987683975966</v>
       </c>
       <c r="L25">
-        <v>1.000888017169661</v>
+        <v>1.024127976847932</v>
       </c>
       <c r="M25">
-        <v>0.9636956155824428</v>
+        <v>1.020590390978256</v>
       </c>
       <c r="N25">
-        <v>1.004946845334695</v>
+        <v>1.027078446485429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_202/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021323551346859</v>
+        <v>0.9852526947686416</v>
       </c>
       <c r="D2">
-        <v>1.023091967653067</v>
+        <v>0.9943609201046527</v>
       </c>
       <c r="E2">
-        <v>1.022210100574782</v>
+        <v>0.9936977894489406</v>
       </c>
       <c r="F2">
-        <v>1.019752484637941</v>
+        <v>0.9613072955438752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028395850748849</v>
+        <v>1.038525362002296</v>
       </c>
       <c r="J2">
-        <v>1.026515664652551</v>
+        <v>1.007883623572515</v>
       </c>
       <c r="K2">
-        <v>1.025924423788299</v>
+        <v>1.005899379360375</v>
       </c>
       <c r="L2">
-        <v>1.02504515356685</v>
+        <v>1.005245627987061</v>
       </c>
       <c r="M2">
-        <v>1.022594800432511</v>
+        <v>0.9733333625969034</v>
       </c>
       <c r="N2">
-        <v>1.027973434639351</v>
+        <v>1.009314933923855</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022333498300389</v>
+        <v>0.9901689765165971</v>
       </c>
       <c r="D3">
-        <v>1.023964303143492</v>
+        <v>0.9983809041788672</v>
       </c>
       <c r="E3">
-        <v>1.023068577542446</v>
+        <v>0.997634221566847</v>
       </c>
       <c r="F3">
-        <v>1.02140221847953</v>
+        <v>0.9690022202115837</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028507788645528</v>
+        <v>1.039433547147288</v>
       </c>
       <c r="J3">
-        <v>1.027162866277341</v>
+        <v>1.010931280849807</v>
       </c>
       <c r="K3">
-        <v>1.026603385778147</v>
+        <v>1.009034543643408</v>
       </c>
       <c r="L3">
-        <v>1.025710106318863</v>
+        <v>1.008297462736516</v>
       </c>
       <c r="M3">
-        <v>1.024048310287277</v>
+        <v>0.9800477133623932</v>
       </c>
       <c r="N3">
-        <v>1.028621555364682</v>
+        <v>1.012366919224052</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02298676628891</v>
+        <v>0.9932742462792942</v>
       </c>
       <c r="D4">
-        <v>1.024528846358328</v>
+        <v>1.000925203987651</v>
       </c>
       <c r="E4">
-        <v>1.023624246355038</v>
+        <v>1.000126744508656</v>
       </c>
       <c r="F4">
-        <v>1.022469335143573</v>
+        <v>0.9738476334811544</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028578569745956</v>
+        <v>1.039994101715526</v>
       </c>
       <c r="J4">
-        <v>1.027580858730693</v>
+        <v>1.012851576433203</v>
       </c>
       <c r="K4">
-        <v>1.027042170811606</v>
+        <v>1.011012475423902</v>
       </c>
       <c r="L4">
-        <v>1.026139916284943</v>
+        <v>1.010223640076523</v>
       </c>
       <c r="M4">
-        <v>1.024988006075937</v>
+        <v>0.9842722902348918</v>
       </c>
       <c r="N4">
-        <v>1.029040141415263</v>
+        <v>1.014289941847438</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023261344668148</v>
+        <v>0.9945623042911802</v>
       </c>
       <c r="D5">
-        <v>1.024766200576589</v>
+        <v>1.001981767874793</v>
       </c>
       <c r="E5">
-        <v>1.02385789193929</v>
+        <v>1.001162065220942</v>
       </c>
       <c r="F5">
-        <v>1.022917868865606</v>
+        <v>0.9758543860760243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028607930943775</v>
+        <v>1.040223434823478</v>
       </c>
       <c r="J5">
-        <v>1.02775639401233</v>
+        <v>1.013646965350221</v>
       </c>
       <c r="K5">
-        <v>1.027226505000477</v>
+        <v>1.011832332033162</v>
       </c>
       <c r="L5">
-        <v>1.026320498793021</v>
+        <v>1.011022236679433</v>
       </c>
       <c r="M5">
-        <v>1.025382863181545</v>
+        <v>0.9860210678077067</v>
       </c>
       <c r="N5">
-        <v>1.029215925977134</v>
+        <v>1.01508646030795</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023307444356682</v>
+        <v>0.9947775762041933</v>
       </c>
       <c r="D6">
-        <v>1.024806054586947</v>
+        <v>1.00215841942793</v>
       </c>
       <c r="E6">
-        <v>1.023897124550611</v>
+        <v>1.001335180013493</v>
       </c>
       <c r="F6">
-        <v>1.022993175032694</v>
+        <v>0.9761896026889346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028612837641335</v>
+        <v>1.040261574578903</v>
       </c>
       <c r="J6">
-        <v>1.027785856103245</v>
+        <v>1.013779830092052</v>
       </c>
       <c r="K6">
-        <v>1.0272574478474</v>
+        <v>1.011969318794558</v>
       </c>
       <c r="L6">
-        <v>1.026350812971254</v>
+        <v>1.011155682392385</v>
       </c>
       <c r="M6">
-        <v>1.025449150396186</v>
+        <v>0.9863131398776558</v>
       </c>
       <c r="N6">
-        <v>1.029245429907597</v>
+        <v>1.015219513732954</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022990435435641</v>
+        <v>0.9932915247493196</v>
       </c>
       <c r="D7">
-        <v>1.024532017817231</v>
+        <v>1.000939372444939</v>
       </c>
       <c r="E7">
-        <v>1.023627368172021</v>
+        <v>1.000140627085336</v>
       </c>
       <c r="F7">
-        <v>1.022475328787378</v>
+        <v>0.9738745644885678</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028578963624643</v>
+        <v>1.039997190715474</v>
       </c>
       <c r="J7">
-        <v>1.027583204982823</v>
+        <v>1.012862250614337</v>
       </c>
       <c r="K7">
-        <v>1.027044634408554</v>
+        <v>1.011023475616871</v>
       </c>
       <c r="L7">
-        <v>1.026142329667603</v>
+        <v>1.010234354263597</v>
       </c>
       <c r="M7">
-        <v>1.024993282919177</v>
+        <v>0.9842957625923648</v>
       </c>
       <c r="N7">
-        <v>1.02904249099934</v>
+        <v>1.014300631187134</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021664916854687</v>
+        <v>0.9869303704526066</v>
       </c>
       <c r="D8">
-        <v>1.023386760274167</v>
+        <v>0.9957316240673433</v>
       </c>
       <c r="E8">
-        <v>1.02250019033091</v>
+        <v>0.9950397683179262</v>
       </c>
       <c r="F8">
-        <v>1.02031010092345</v>
+        <v>0.963936618783113</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028434022302896</v>
+        <v>1.038838001684311</v>
       </c>
       <c r="J8">
-        <v>1.026734553375457</v>
+        <v>1.008924609293592</v>
       </c>
       <c r="K8">
-        <v>1.026153996005481</v>
+        <v>1.006969725339422</v>
       </c>
       <c r="L8">
-        <v>1.025269972649958</v>
+        <v>1.006287350971438</v>
       </c>
       <c r="M8">
-        <v>1.02308619467912</v>
+        <v>0.9756283131245683</v>
       </c>
       <c r="N8">
-        <v>1.028192634209349</v>
+        <v>1.010357397964059</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019327344319039</v>
+        <v>0.9751024211806635</v>
       </c>
       <c r="D9">
-        <v>1.021369302963189</v>
+        <v>0.9860918052172162</v>
       </c>
       <c r="E9">
-        <v>1.020515308285222</v>
+        <v>0.9856069810493502</v>
       </c>
       <c r="F9">
-        <v>1.016491543113879</v>
+        <v>0.9453137990162782</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028165983295051</v>
+        <v>1.03657976148352</v>
       </c>
       <c r="J9">
-        <v>1.025233047466533</v>
+        <v>1.001566085081543</v>
       </c>
       <c r="K9">
-        <v>1.024580358450087</v>
+        <v>0.999414637017626</v>
       </c>
       <c r="L9">
-        <v>1.023729240569205</v>
+        <v>0.9989379726754497</v>
       </c>
       <c r="M9">
-        <v>1.019719101481594</v>
+        <v>0.9593611470954715</v>
       </c>
       <c r="N9">
-        <v>1.02668899598981</v>
+        <v>1.002988423803594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017767669775138</v>
+        <v>0.9667436315656336</v>
       </c>
       <c r="D10">
-        <v>1.020024740763928</v>
+        <v>0.9793120686180683</v>
       </c>
       <c r="E10">
-        <v>1.019192950747341</v>
+        <v>0.9789796302256645</v>
       </c>
       <c r="F10">
-        <v>1.013943292954748</v>
+        <v>0.9320159564093237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027978801474274</v>
+        <v>1.03491694183881</v>
       </c>
       <c r="J10">
-        <v>1.024227928478905</v>
+        <v>0.9963418014635642</v>
       </c>
       <c r="K10">
-        <v>1.023528405197058</v>
+        <v>0.994065173790443</v>
       </c>
       <c r="L10">
-        <v>1.022699693652642</v>
+        <v>0.9937390768588225</v>
       </c>
       <c r="M10">
-        <v>1.017469593951103</v>
+        <v>0.9477316670398991</v>
       </c>
       <c r="N10">
-        <v>1.02568244961793</v>
+        <v>0.9977567211036443</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017091993371728</v>
+        <v>0.962997381361903</v>
       </c>
       <c r="D11">
-        <v>1.019442622967475</v>
+        <v>0.9762820408559409</v>
       </c>
       <c r="E11">
-        <v>1.018620564871189</v>
+        <v>0.976019458483348</v>
       </c>
       <c r="F11">
-        <v>1.012839173471416</v>
+        <v>0.9260132029482852</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027895736853946</v>
+        <v>1.034156464735292</v>
       </c>
       <c r="J11">
-        <v>1.023791716962489</v>
+        <v>0.9939948569674132</v>
       </c>
       <c r="K11">
-        <v>1.023072212692453</v>
+        <v>0.9916655463432903</v>
       </c>
       <c r="L11">
-        <v>1.022253315683496</v>
+        <v>0.9914082395074206</v>
       </c>
       <c r="M11">
-        <v>1.016494316597909</v>
+        <v>0.9424796550246257</v>
       </c>
       <c r="N11">
-        <v>1.025245618631127</v>
+        <v>0.9954064436771104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016840966666676</v>
+        <v>0.9615854166883794</v>
       </c>
       <c r="D12">
-        <v>1.019226410991181</v>
+        <v>0.9751413691562819</v>
       </c>
       <c r="E12">
-        <v>1.018407985482938</v>
+        <v>0.9749053611438998</v>
       </c>
       <c r="F12">
-        <v>1.012428939336233</v>
+        <v>0.9237432905626131</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027864580419826</v>
+        <v>1.033867608473164</v>
       </c>
       <c r="J12">
-        <v>1.023629539319205</v>
+        <v>0.9931094746030408</v>
       </c>
       <c r="K12">
-        <v>1.022902658200305</v>
+        <v>0.9907608372548183</v>
       </c>
       <c r="L12">
-        <v>1.022087423730511</v>
+        <v>0.9905296615315946</v>
       </c>
       <c r="M12">
-        <v>1.016131863851906</v>
+        <v>0.9404933624557694</v>
       </c>
       <c r="N12">
-        <v>1.025083210676987</v>
+        <v>0.9945198039682258</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016894815048468</v>
+        <v>0.9618892366813434</v>
       </c>
       <c r="D13">
-        <v>1.019272788636985</v>
+        <v>0.9753867515781588</v>
       </c>
       <c r="E13">
-        <v>1.018453583122527</v>
+        <v>0.9751450141346925</v>
       </c>
       <c r="F13">
-        <v>1.012516941288066</v>
+        <v>0.9242320749619718</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02787127727123</v>
+        <v>1.033929863084531</v>
       </c>
       <c r="J13">
-        <v>1.023664333741247</v>
+        <v>0.9933000238023851</v>
       </c>
       <c r="K13">
-        <v>1.022939032944035</v>
+        <v>0.9909555209034026</v>
       </c>
       <c r="L13">
-        <v>1.022123012077156</v>
+        <v>0.9907187130632054</v>
       </c>
       <c r="M13">
-        <v>1.016209619968941</v>
+        <v>0.9409210851363407</v>
       </c>
       <c r="N13">
-        <v>1.0251180545111</v>
+        <v>0.9947106237692898</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017071244461603</v>
+        <v>0.962881093416401</v>
       </c>
       <c r="D14">
-        <v>1.019424750566194</v>
+        <v>0.9761880685392451</v>
       </c>
       <c r="E14">
-        <v>1.018602992378611</v>
+        <v>0.9759276697477047</v>
       </c>
       <c r="F14">
-        <v>1.012805265783787</v>
+        <v>0.9258264133688513</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02789316762507</v>
+        <v>1.034132719820898</v>
       </c>
       <c r="J14">
-        <v>1.023778314357351</v>
+        <v>0.9939219543277116</v>
       </c>
       <c r="K14">
-        <v>1.023058199396391</v>
+        <v>0.9915910411252102</v>
       </c>
       <c r="L14">
-        <v>1.022239604787077</v>
+        <v>0.9913358822305537</v>
       </c>
       <c r="M14">
-        <v>1.016464360085122</v>
+        <v>0.9423162092601226</v>
       </c>
       <c r="N14">
-        <v>1.025232196992752</v>
+        <v>0.9953334375072985</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017179941728671</v>
+        <v>0.9634894566815195</v>
       </c>
       <c r="D15">
-        <v>1.019518380966175</v>
+        <v>0.9766797423392632</v>
       </c>
       <c r="E15">
-        <v>1.018695052343982</v>
+        <v>0.9764079301571896</v>
       </c>
       <c r="F15">
-        <v>1.012982896534796</v>
+        <v>0.9268032971317939</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027906614905369</v>
+        <v>1.034256851406542</v>
       </c>
       <c r="J15">
-        <v>1.023848521774547</v>
+        <v>0.9943033130892993</v>
       </c>
       <c r="K15">
-        <v>1.023131607942452</v>
+        <v>0.9919808054713322</v>
       </c>
       <c r="L15">
-        <v>1.022311429818691</v>
+        <v>0.9917144179239874</v>
       </c>
       <c r="M15">
-        <v>1.016621288312594</v>
+        <v>0.9431709976753989</v>
       </c>
       <c r="N15">
-        <v>1.025302504112534</v>
+        <v>0.9957153378420701</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01781250519426</v>
+        <v>0.9669894705221662</v>
       </c>
       <c r="D16">
-        <v>1.020063375784741</v>
+        <v>0.9795110898466856</v>
       </c>
       <c r="E16">
-        <v>1.019230942371072</v>
+        <v>0.9791741006431773</v>
       </c>
       <c r="F16">
-        <v>1.014016554056878</v>
+        <v>0.9324088982988894</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027984271773658</v>
+        <v>1.034966534605921</v>
       </c>
       <c r="J16">
-        <v>1.024256857511186</v>
+        <v>0.9964957006326861</v>
       </c>
       <c r="K16">
-        <v>1.023558666602647</v>
+        <v>0.9942226025007851</v>
       </c>
       <c r="L16">
-        <v>1.022729306076598</v>
+        <v>0.993892019178924</v>
       </c>
       <c r="M16">
-        <v>1.017534293461831</v>
+        <v>0.9480754231278257</v>
       </c>
       <c r="N16">
-        <v>1.025711419732756</v>
+        <v>0.9979108388272391</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018209207094361</v>
+        <v>0.9691500443449699</v>
       </c>
       <c r="D17">
-        <v>1.020405259444424</v>
+        <v>0.9812611770934691</v>
       </c>
       <c r="E17">
-        <v>1.019567146284789</v>
+        <v>0.9808843708921069</v>
       </c>
       <c r="F17">
-        <v>1.014664744104371</v>
+        <v>0.9358573204195992</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028032444759113</v>
+        <v>1.035400663184919</v>
       </c>
       <c r="J17">
-        <v>1.024512730575755</v>
+        <v>0.9978476305704305</v>
       </c>
       <c r="K17">
-        <v>1.023826364083041</v>
+        <v>0.9956059417188302</v>
       </c>
       <c r="L17">
-        <v>1.022991273846658</v>
+        <v>0.9952360786688265</v>
       </c>
       <c r="M17">
-        <v>1.018106664263741</v>
+        <v>0.9510919365914181</v>
       </c>
       <c r="N17">
-        <v>1.025967656166425</v>
+        <v>0.9992646886605632</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018440565132888</v>
+        <v>0.9703981330242007</v>
       </c>
       <c r="D18">
-        <v>1.020604682780258</v>
+        <v>0.9822729426208131</v>
       </c>
       <c r="E18">
-        <v>1.019763268016744</v>
+        <v>0.9818732821271705</v>
       </c>
       <c r="F18">
-        <v>1.01504275441167</v>
+        <v>0.937845371949069</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028060348958484</v>
+        <v>1.035650000730608</v>
       </c>
       <c r="J18">
-        <v>1.024661881695149</v>
+        <v>0.9986280713039216</v>
       </c>
       <c r="K18">
-        <v>1.023982440982259</v>
+        <v>0.9964048486379106</v>
       </c>
       <c r="L18">
-        <v>1.023144019545911</v>
+        <v>0.9960124182005128</v>
       </c>
       <c r="M18">
-        <v>1.018440400683941</v>
+        <v>0.952830759012666</v>
       </c>
       <c r="N18">
-        <v>1.026117019097517</v>
+        <v>1.000046237709414</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018519446946162</v>
+        <v>0.9708216800548226</v>
       </c>
       <c r="D19">
-        <v>1.020672682421014</v>
+        <v>0.9826164257096131</v>
       </c>
       <c r="E19">
-        <v>1.019830143808276</v>
+        <v>0.982209034016412</v>
       </c>
       <c r="F19">
-        <v>1.015171634878181</v>
+        <v>0.9385193829334089</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028069830614881</v>
+        <v>1.035734368534977</v>
       </c>
       <c r="J19">
-        <v>1.024712722229573</v>
+        <v>0.9988928299371627</v>
       </c>
       <c r="K19">
-        <v>1.024035647909487</v>
+        <v>0.9966759280976599</v>
       </c>
       <c r="L19">
-        <v>1.023196092456479</v>
+        <v>0.9962758599528849</v>
       </c>
       <c r="M19">
-        <v>1.018554176417558</v>
+        <v>0.9534202323325048</v>
       </c>
       <c r="N19">
-        <v>1.026167931831331</v>
+        <v>1.000311372330282</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018166647998657</v>
+        <v>0.9689195002128667</v>
       </c>
       <c r="D20">
-        <v>1.020368577699824</v>
+        <v>0.981074350346848</v>
       </c>
       <c r="E20">
-        <v>1.019531072753954</v>
+        <v>0.980701777523008</v>
       </c>
       <c r="F20">
-        <v>1.014595206537137</v>
+        <v>0.935489776681547</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028027296349786</v>
+        <v>1.035354488942109</v>
       </c>
       <c r="J20">
-        <v>1.024485287681255</v>
+        <v>0.9977034269599543</v>
       </c>
       <c r="K20">
-        <v>1.023797649561009</v>
+        <v>0.9954583530301536</v>
       </c>
       <c r="L20">
-        <v>1.022963172946121</v>
+        <v>0.9950926684896518</v>
       </c>
       <c r="M20">
-        <v>1.01804526652749</v>
+        <v>0.950770450281455</v>
       </c>
       <c r="N20">
-        <v>1.025940174299867</v>
+        <v>0.9991202802644201</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017019291798491</v>
+        <v>0.9625895924255561</v>
       </c>
       <c r="D21">
-        <v>1.019380001224864</v>
+        <v>0.9759525284567605</v>
       </c>
       <c r="E21">
-        <v>1.018558994245795</v>
+        <v>0.9756976072787333</v>
       </c>
       <c r="F21">
-        <v>1.012720364647295</v>
+        <v>0.925358060758776</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027886729813003</v>
+        <v>1.034073162306249</v>
       </c>
       <c r="J21">
-        <v>1.023744754033476</v>
+        <v>0.9937391949111002</v>
       </c>
       <c r="K21">
-        <v>1.023023110730327</v>
+        <v>0.9914042730781691</v>
       </c>
       <c r="L21">
-        <v>1.022205273554452</v>
+        <v>0.9911545017765885</v>
       </c>
       <c r="M21">
-        <v>1.016389350808983</v>
+        <v>0.9419063844643459</v>
       </c>
       <c r="N21">
-        <v>1.025198589009368</v>
+        <v>0.9951504185513528</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016297611155948</v>
+        <v>0.9584906711679891</v>
       </c>
       <c r="D22">
-        <v>1.018758515975297</v>
+        <v>0.9726438040874937</v>
       </c>
       <c r="E22">
-        <v>1.017947984501273</v>
+        <v>0.972466507481399</v>
       </c>
       <c r="F22">
-        <v>1.011540907664628</v>
+        <v>0.9187530859151701</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027796599668072</v>
+        <v>1.033230447729633</v>
       </c>
       <c r="J22">
-        <v>1.023278287152531</v>
+        <v>0.991167398695455</v>
       </c>
       <c r="K22">
-        <v>1.022535523742308</v>
+        <v>0.9887773950313933</v>
       </c>
       <c r="L22">
-        <v>1.021728246749576</v>
+        <v>0.9886038783408054</v>
       </c>
       <c r="M22">
-        <v>1.015347100424416</v>
+        <v>0.9361262801630996</v>
       </c>
       <c r="N22">
-        <v>1.024731459691948</v>
+        <v>0.9925749700900921</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016680215849664</v>
+        <v>0.9606753729972183</v>
       </c>
       <c r="D23">
-        <v>1.019087970410516</v>
+        <v>0.9744065687578628</v>
       </c>
       <c r="E23">
-        <v>1.018271875910224</v>
+        <v>0.974187759256135</v>
       </c>
       <c r="F23">
-        <v>1.012166226361901</v>
+        <v>0.9222780346173124</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027844545282656</v>
+        <v>1.033680812199245</v>
       </c>
       <c r="J23">
-        <v>1.023525652229012</v>
+        <v>0.9925385962658435</v>
       </c>
       <c r="K23">
-        <v>1.022794060271915</v>
+        <v>0.9901776537626564</v>
       </c>
       <c r="L23">
-        <v>1.02198117577764</v>
+        <v>0.9899633786710852</v>
       </c>
       <c r="M23">
-        <v>1.015899724732244</v>
+        <v>0.9392111223846115</v>
       </c>
       <c r="N23">
-        <v>1.02497917605521</v>
+        <v>0.993948114918309</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018185878718888</v>
+        <v>0.9690237105889156</v>
       </c>
       <c r="D24">
-        <v>1.020385152575112</v>
+        <v>0.9811587971454665</v>
       </c>
       <c r="E24">
-        <v>1.019547372768746</v>
+        <v>0.9807843102995948</v>
       </c>
       <c r="F24">
-        <v>1.014626627778686</v>
+        <v>0.9356559257931221</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028029623294602</v>
+        <v>1.035375365070085</v>
       </c>
       <c r="J24">
-        <v>1.024497688238215</v>
+        <v>0.9977686113836415</v>
       </c>
       <c r="K24">
-        <v>1.023810624622758</v>
+        <v>0.9955250665758268</v>
       </c>
       <c r="L24">
-        <v>1.022975870705248</v>
+        <v>0.9951574928871939</v>
       </c>
       <c r="M24">
-        <v>1.01807300988391</v>
+        <v>0.9509157797300117</v>
       </c>
       <c r="N24">
-        <v>1.025952592467041</v>
+        <v>0.9991855572574657</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019931886576375</v>
+        <v>0.9782391584284025</v>
       </c>
       <c r="D25">
-        <v>1.021890790662977</v>
+        <v>0.9886428861845357</v>
       </c>
       <c r="E25">
-        <v>1.02102828896257</v>
+        <v>0.9881021511163141</v>
       </c>
       <c r="F25">
-        <v>1.017479148963601</v>
+        <v>0.9502729650177144</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028236774437087</v>
+        <v>1.037190322749576</v>
       </c>
       <c r="J25">
-        <v>1.025621945682079</v>
+        <v>1.003521729373434</v>
       </c>
       <c r="K25">
-        <v>1.024987683975966</v>
+        <v>1.001420102910438</v>
       </c>
       <c r="L25">
-        <v>1.024127976847932</v>
+        <v>1.000888017169662</v>
       </c>
       <c r="M25">
-        <v>1.020590390978256</v>
+        <v>0.9636956155824431</v>
       </c>
       <c r="N25">
-        <v>1.027078446485429</v>
+        <v>1.004946845334696</v>
       </c>
     </row>
   </sheetData>
